--- a/biology/Zoologie/Arcyptera_fusca/Arcyptera_fusca.xlsx
+++ b/biology/Zoologie/Arcyptera_fusca/Arcyptera_fusca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Arcyptera fusca, l'arcyptère bariolée ou criquet bariolé, est une espèce d'insectes orthoptères caelifères de la famille des Acrididae[1].
+Arcyptera fusca, l'arcyptère bariolée ou criquet bariolé, est une espèce d'insectes orthoptères caelifères de la famille des Acrididae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans un grand tiers sud-est de la France, jusqu'à une ligne Pyrénées-Atlantiques - Jura, dans les Bouches-du-Rhône et dans le Tarn. Absent de Corse. Présent en Suisse. En Allemagne, il s'est considérablement raréfié (il n'existe plus qu'une population isolée en Bavière).
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce criquet réside dans des zones montueuses et en montagne (jusqu'à 2 400 m) dans des endroits xériques comme des pelouses sèches, rocailleuses, à la végétation pauvre.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Farouche, le mâle émet en volant un crépitement ; une fois posé, il frotte souvent brièvement ses fémurs contre ses tegmina (élytres), émettant ainsi un son court et puissant.
 </t>
@@ -605,7 +623,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pallas, 1773
 Sur les autres projets Wikimedia :
